--- a/Excel/ReadWrite.xlsx
+++ b/Excel/ReadWrite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinesh MSI\Documents\GitHub\CTS-GenC-Hackathon\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinesh MSI\eclipse-workspace\hackathon\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ED4A2C-6832-4BFF-8182-B949304D89BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A0F77-0FCB-4BC3-ABF9-F3682227B96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-96" windowWidth="23256" windowHeight="13176" xr2:uid="{B218214F-2B8C-435E-A269-937086E5A918}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>9876543210</t>
   </si>
   <si>
-    <t>chrome</t>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -419,9 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9AE97B-327B-494B-B713-32554E3848AC}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
